--- a/DOWNLOADS/EDITAIS/U_929615_E_900032025_01-10-2025_10h00m/U_929615_E_900032025_01-10-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_929615_E_900032025_01-10-2025_10h00m/U_929615_E_900032025_01-10-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Nº</t>
   </si>
@@ -100,16 +100,16 @@
     <t>COMPUTADOR (DESKTOP-BÁSICO) PROCESSADOR: NO MÍNIMO INTEL CORE I3 OU AMD A10, OU SUPERIORES, DISCO RÍGIDO: MÍNIMO DE 500 GB, MEMÓRIA RAM: 4GB, DDR3, MÍNIMA 2,41MHZ, UNIDADE DE DISCO ÓTICO: CD/DVD ROM,CAIXA DE SOM STÉREO TECLADO: USB, ABNT2, 107 TECLAS (COM FIO), TIPO DE MONITOR: 18,5 (1366 X 768), MOUSE: USB, 800 DPI, 2 BOTÕES, SCROOL (COM FIO), INTERFACES DE REDE: 10/100/1000 E WIFI, INTERFACES DE VÍDEO: INTEGRADA, SISTEMA OPERACIONAL: WINDOWS 11 PRO (64 BITS), FONTE: COMPATÍVEL COM O ITEM, 1TB GARANTIA: MÍNIMA DE 12 MESES.</t>
   </si>
   <si>
-    <t>DATA SHOW (PROJETOR) PROJETOR MULTIMÍDIA NÃO INFERIOR A 3600 ANSI LUMENS - COM RESOLUÇÃO NATIVA (SEM EMULAÇÃO) DE (XGA) 1024 X 768, PERMITINDO OUTRAS RESOLUÇÕES EMULADAS, CONTRASTE DE 16.000:1, PROJEÇÃO MÍNIMA DE 1,48 * 1,77 M, VIDA ÚTIL DE LÂMPADA NO MÍNIMO DE 6.000 HORAS (PADRÃO) E 12.000 HORAS (ECO), COM MODO DE PROJEÇÃO FRONTAL / TRASEIRO / TETO, COM ZOOM E FOCO AJUSTÁVEIS, COM BOTÕES FÍSICOS E CONTROLE REMOTO, ENTRADAS: VGA, USB, HDMI, ÁUDIO, RCA, RS5232, USB MINI, GARANTIA MÍNIMA DE 12 MESES PELO FABRICANTE. ITENS INCLUSOS: - PROJETOR DEVIDAMENTE ACONDICIONADO; - CABO DE ENERGIA; - CABO HDMI; - CABO VGA; - CONTROLE REMOTO; - PILHAS; - CD COM SOFTWARE; - CARTÃO COM GARANTIA; - MANUAL EM PORTUGUÊS; ALIMENTAÇÃO — ENERGIA ELETRICA, BIVOLT</t>
+    <t>DATA SHOW (PROJETOR) PROJETOR MULTIMÍDIA NÃO INFERIOR A 3600 ANSI LUMENS - COM RESOLUÇÃO NATIVA (SEM EMULAÇÃO) DE (XGA) 1024 X 768, PERMITINDO OUTRAS RESOLUÇÕES EMULADAS, CONTRASTE DE 16.000:1, PROJEÇÃO MÍNIMA DE 1,48 ~ 1,77 M, VIDA ÚTIL DE LÂMPADA NO MÍNIMO DE 6.000 HORAS (PADRÃO) E 12.000 HORAS (ECO), COM MODO DE PROJEÇÃO FRONTAL / TRASEIRO / TETO, COM ZOOM E FOCO AJUSTÁVEIS, COM BOTÕES FÍSICOS E CONTROLE REMOTO, ENTRADAS: VGA, USB, HDMI, ÁUDIO, RCA, RS232, USB MINI, GARANTIA MÍNIMA DE 12 MESES PELO FABRICANTE. ITENS INCLUSOS: - PROJETOR DEVIDAMENTE ACONDICIONADO; - CABO DE ENERGIA; - CABO HDMI; - CABO VGA; - CONTROLE REMOTO; - PILHAS; - CD COM SOFTWARE; - CARTÃO COM GARANTIA; - MANUAL EM PORTUGUÊS; ALIMENTAÇÃO – ENERGIA ELETRICA, BIVOLT.</t>
   </si>
   <si>
     <t>IMPRESSORA LASER COLORIDA (IMPRESSORA, COPIADORA E SCANNER) 110 VOLTS, ENTRADA USB, MEMÓRIA INTERNA MÍNIMA DE 128 MB, TIPO DE PAPEL: A4, TIMBRADO, SULFITE, ETIQUETAS. COM CAPACIDADE PARA IMPRESSÃO DUPLEX (FRENTE E VERSO), REALIZE IMPRESSORES COLORIDAS COM CABO DE FORÇA E COM TODOS OS EQUIPAMENTOS QUE SE FAÇAM NECESSÁRIOS PARA O PLENO FUNCIONAMENTO DO EQUIPAMENTO, COM MANUAL DE INSTRUÇÃO, GARANTIA MÍNIMA DE 12 MESES.</t>
   </si>
   <si>
-    <t>IMPRESSORA MULTIFUNCIONAL LASER COLORIDA, CARACTERÍSTICAS GERAIS: IMPRESSÃO: PADRÃO DE IMPRESSÃO DUPLEX (FRENTE E VERSO) IMPRESSÃO COLORIDA TECNOLOGIA DE IMPRESSÃO: LASER COLORIDO VELOCIDADE MÁX. DE IMPRESSÃO: ATÉ 33 PPM EM PRETO/CORES RESOLUÇÃO DA IMPRESSÃO (MÁXIMA EM DPI): ATÉ 2400 X 600 DPI RESOLUÇÃO (MÁXIMA) EM DPI: ATÉ 2400 X 600 DPI.CAPACIDADE DE ENTRADA DE PAPEL PADRÃO (FOLHAS): BANDEJA PARA ATÉ 250 FOLHAS CAPACIDADE DA BANDEJA DE PAPEL: BANDEJA PARA ATÉ 250 FOLHAS.CAPACIDADE DE BANDEJA ADICIONAL:BANDEIJA MULTIUSO: BANDEJA MULTIUSO PARA 50 FOLHAS OU MAIS;COMPATIBILIDADE COM O DRIVER DE IMPRESSORA: WINDOWS, MAC OS, LINUX CICLO DE TRABALHO MENSAL MÁX.: 40,000 PÁGINAS.CÓPIA:CÓPIAS MÚLTIPLAS RESOLUÇÃO DE CÓPIA (MÁXIMA): 1200 X 600 DPI OPÇÕES DE CÓPIA: ORDENADAS, N EM 1, CÓPIAS MÚLTIPLAS CÓPIA EM CORES/PB: PRETO/CORES COPIA SEM USO DO PC, CAPACIDADE DE CÓPIA: PRETO/CORES, CAPACIDADE MÁX. DO ALIMENTADOR AUTOMÁTICO DE DOCUMENTOS (ADF): ATÉ 50 PÁGINAS VELOCIDADE MÁX. DE CÓPIA EM PRETO (CPM): ATÉ 33 COM, FUNÇÃO DE CÓPIAS ORDENADAS, TAMANHO DO VIDRO DE DOCUMENTOS: 21,6 X 27,9 CM (CARTA) TAMANHO DO VIDRO DE EXPOSIÇÃO: 21,6 X 27,9 CM (CARTA) CÓPIA DUPLEX (FRENTE E VERSO). SCANNER:RESOLUÇÃO DE DIGITALIZAÇÃO INTERPOLADA (DPI): ATÉ 19200 X 19200 DPI RESOLUÇÃO INTERPOLADA: ATÉ 19200 X 19200 DPI.RESOLUÇÃO MÁX. DE DIGITALIZAÇÃO INTERPOLADA (DPI): ATÉ 19200 X 19200 DPI.RESOLUÇÃO DE DIGITALIZAÇÃO ÓPTICA (DPI): ATÉ 1200 X 2400 DPI (DO VIDRO DE DOCUMENTOS) FORMATOS (EXPORTAÇÃO): WINDOWS BITMAP (BMP), JPEG (JPG), TIFF SINGLE-PAGE/MULTI-PAGE (TIF), PORTABLE NETWORK GRAPHICS (PNG), PDF SINGLE-PAGE/MULTI-PAGE (PDF/A, HIGH COMPRESSION PDF, SECURE PDF, SEARCHABLE PDF), XML PAPER SPECIFICATION (XPS), MICROSOFT OFFICE WORD (DOCX), MICROSOFT OFFICE POWERPOINT (PPTX), MICROSOFT OFFICE EXCEL (XLSX), HTML 3.2/4.0 (HTM), MICROSOFT EXCEL 2003 XP (XLS), RTF WORD 2000/WORDPAD (RTF), WORDPERFECT 9/10 (WPD), TEXT (TXT).FUNÇÃO DIGITALIZAÇÃO PARA: ARQUIVO, IMAGEM, E-MAIL, OCR, FTP, SERVIDOR SSH (SFTP), USB, SHAREPOINT, NUVEM (WEB CONNECT), SERVIDOR DE E-MAIL, PASTA DE REDE (SOMENTE CIFS WINDOWS), EASY SCAN TO E-MAIL.PAPEL:CAPACIDADE DE ENTRADA: ATÉ 100 FOLHAS. CAPACIDADE DE ENTRADA PADRÃO (CARTÕES): ATÉ 30 CARTÕES CAPACIDADE DE ENTRADA PADRÃO(ENVELOPES): ATÉ 10 CAPACIDADE DE SAÍDA: ATÉ 30 FOLHAS. TAMANHOS DE MÍDIA SUPORTADOS (SISTEMA MÉTRICO): A4; B5; A6; ENVELOPE DL, OFÍCIO TAMANHOS DE MÍDIA COMPATÍVEIS (PADRÃO DOS EUA): CARTA; OFÍCIO; 4 X 6 POL.; 5 X 7 POL.; 8 X 10 POL.; ENVELOPES NÚM. 10. TAMANHOS DE MÍDIA, PERSONALIZADOS (SISTEMA MÉTRICO): 76,2 X 127 A 215,9 X 355,6 MM TAMANHOS DE MÍDIA, PERSONALIZADOS (PADRÃO DOS EUA): 3 X 5 A 8,5 X 14 POL.TIPOS DE SUPORTES: PAPEL COMUM, PAPÉIS FOSCOS PARA FOLHETOS, PAPÉIS BRILHANTES PARA FOLHETOS, PAPÉIS FOTOGRÁFICOS, ENVELOPES, OUTROS PAPÉIS ESPECIAIS P/ JATO DE TINTA GRAMATURA DE MÍDIA COMPATÍVEL (SISTEMA MÉTRICO): PAPEL COMUM: 60 A 90 G/M?; ENVELOPES: 75 A 90 G/M?; CARTÕES: ATÉ A 200 G/M?; PAPEL FOTOGRÁFICO: ATÉ 300 G/M?. GRAMATURA DE MÍDIA COMPATÍVEL (PADRÃO DOS EUA): 20 LB. IMPRESSÃO SEM MARGENS: SIM (ATÉ 8,5 X 11 POLEGADAS, 210 X 297 MM) CONECTIVIDADE:PORTAS: USB 2.0, ETHERNET GIGABIT, WI-FI, BLUETOOTH LE,CAPACIDADE SEM FIOS: SIM, WI-FI 802.11 B/G/N COM BANDA DUPLA INTEGRADO, WIRELESS DIRECT, GERAL:VOLTAGEM DE ENTRADA: 100-127 VAC, 50/60 HZ, AUTOMÁTICA; COMPATIBILIDADE COM LINUX E WINDOWS;SUPORTE PROTOCOLO DHCP;CONECTIVIDADE: USB 2.0, WIRELESS 802.11 (INTERNO OU EXTERNO DO MESMO FABRICANTE DO EQUIPAMENTO) OU SUPERIOR.MEMORIA INTERNA MINIMA DE 128 MB; GARANTIA DE SUPORTE E MANUTENÇÃO:NA COMPRA, GARANTIA TOTAL MÍNIMA DE 12 (DOZE) MESES, COM ATENDIMENTO NO LOCAL DA INSTALAÇÃO DO EQUIPAMENTO, NA CIDADE DE SALVADOR (BA).TODOS OS EQUIPAMENTOS OFERTADOS DEVEM POSSUIR GRADAÇÕES NEUTRAS DAS CORES: PRETO, BRANCO OU CINZA.CATÁLOGOS, SOFTWARE DE INSTALAÇÃO, CABOS DE FORÇA, CABOS DE INTERFACE E DEMAISACESSÓRIOS.QUE ACOMPANHAM O EQUIPAMENTO, TODOS CONFORME NORMAS TÉCNICAS VIGENTES.COMPOSIÇÃO E ACESSÓRIOS:CATÁLOGOS, SOFTWARE DE INSTALAÇÃO, CABO DE ALIMENTAÇÃO (PADRÃO NBR-14136), CABO USB, FRASCO DE TINTA PARA, SENDO ACEITOS OS SUPRIMENTOS QUE ACOMPANHAM A IMPRESSORA DE FÁBRICA, E DEMAIS ACESSÓRIOS QUE ACOMPANHAM O EQUIPAMENTO;TODOS OS EQUIPAMENTOS A SEREM ENTREGUES DEVERÃO SER IDÊNTICOS, OU SEJA, TODOS OS COMPONENTES EXTERNOS E INTERNOS DE MESMOS MODELOS E MARCAS DOS UTILIZADOS NOS EQUIPAMENTOS ENVIADOS PARA AVALIAÇÃO E/OU HOMOLOGAÇÃO PELA CONTRATANTE. CASO O COMPONENTE NÃO MAIS SE ENCONTRE DISPONÍVEL NO MERCADO, ADMITEM-SE SUBSTITUTOS COM QUALIDADE E CARACTERÍSTICAS IDÊNTICAS OU SUPERIORES, MEDIANTE NOVA HOMOLOGAÇÃO PELA CONTRATANTE;AS UNIDADES DO EQUIPAMENTO DEVERÃO SER ENTREGUES DEVIDAMENTE ACONDICIONADAS EM EMBALAGENS INDIVIDUAIS ADEQUADAS, QUE UTILIZEM PREFERENCIALMENTE MATERIAIS RECICLÁVEIS, DE FORMA A GARANTIR A MÁXIMA PROTEÇÃO DURANTE O TRANSPORTE E A ARMAZENAGEM.DOCUMENTOS:DE GARANTIA TOTAL DE TODOS OS COMPONENTES DO EQUIPAMENTO; OS OBJETOS DEVEM CONTER MANUAL OFICIAL DO FABRICANTE ONDE PODERÃO SER CONFERIDAS TODAS AS CARACTERÍSTICAS TÉCNICAS EXIGIDAS DE TODOS OS COMPONENTES DO EQUIPAMENTO, QUE DE FORMA INEQUÍVOCA IDENTIFIQUEM E COMPROVEM AS CONFIGURAÇÕES, POSSÍVEIS EXPANSÕES E UPGRADES, ATRAVÉS DE CERTIFICADOS, EVENTUAIS MANUAIS TÉCNICOS, FOLDERS E DEMAIS LITERATURAS TÉCNICAS EDITADAS PELOS FABRICANTES.</t>
-  </si>
-  <si>
-    <t>MICROFONE SEM FIO; FAIXA DE FREQUÊNCIA DE PORTADORA: UHF730-830MHZ, ESTABILIDADE DE FREQUÊNCIA: &lt;+ 30PPM, FAIXA DE ESTABILIDADE MÓVEL: &gt;90 DB, MODO DE MODULAÇÃO: FM, RESPOSTA EM FREQUÊNCIA: 40 HZ - 20KHZ, RELAÇÃO SINAL/RUÍDO: ≥5DBU (SINAD = 20DB, RELAÇÃO F/N: &gt;80 DB, RELAÇÃO P/N: &gt;80 DB, SAÍDA DE ÁUDIO: 0 * 700 MW, ALCANCE: 50 M, TEMPERATURA DE OPERAÇÃO: -10 ºC * +50 ºC, 2 MICROFONES, BASE RECEPTORA DUPLA, 1 FONTE DE ALIMENTAÇÃO 110/220V1 CABO P10/P10 //,2 BATERIAS 9V, COR PRETA.</t>
+    <t>IMPRESSORA MULTIFUNCIONAL LASER COLORIDA, CARACTERÍSTICAS GERAIS: IMPRESSÃO: PADRÃO DE IMPRESSÃO DUPLEX (FRENTE E VERSO) IMPRESSÃO COLORIDA TECNOLOGIA DE IMPRESSÃO: LASER COLORIDO VELOCIDADE MÁX. DE IMPRESSÃO: ATÉ 33 PPM EM PRETO/CORES RESOLUÇÃO DA IMPRESSÃO (MÁXIMA EM DPI): ATÉ 2400 X 600 DPI RESOLUÇÃO (MÁXIMA) EM DPI: ATÉ 2400 X 600 DPI.CAPACIDADE DE ENTRADA DE PAPEL PADRÃO (FOLHAS): BANDEJA PARA ATÉ 250 FOLHAS CAPACIDADE DA BANDEJA DE PAPEL: BANDEJA PARA ATÉ 250 FOLHAS.CAPACIDADE DE BANDEJA ADICIONAL:BANDEJA MULTIUSO: BANDEJA MULTIUSO PARA 50 FOLHAS OU MAIS;COMPATIBILIDADE COM O DRIVER DE IMPRESSORA: WINDOWS, MAC OS, LINUX CICLO DE TRABALHO MENSAL MÁX.: 40,000 PÁGINAS.CÓPIA:CÓPIAS MÚLTIPLAS RESOLUÇÃO DE CÓPIA (MÁXIMA): 1200 X 600 DPI OPÇÕES DE CÓPIA: ORDENADAS, N EM 1, CÓPIAS MÚLTIPLAS CÓPIA EM CORES/PB: PRETO/CORES COPIA SEM USO DO PC, CAPACIDADE DE CÓPIA: PRETO/CORES, CAPACIDADE MÁX. DO ALIMENTADOR AUTOMÁTICO DE DOCUMENTOS (ADF): ATÉ 50 PÁGINAS VELOCIDADE MÁX. DE CÓPIA EM PRETO (CPM): ATÉ 33 COM, FUNÇÃO DE CÓPIAS ORDENADAS, TAMANHO DO VIDRO DE DOCUMENTOS: 21,6 X 27,9 CM (CARTA) TAMANHO DO VIDRO DE EXPOSIÇÃO: 21,6 X 27,9 CM (CARTA) CÓPIA DUPLEX (FRENTE E VERSO). SCANNER:RESOLUÇÃO DE DIGITALIZAÇÃO INTERPOLADA (DPI): ATÉ 19200 X 19200 DPI RESOLUÇÃO INTERPOLADA: ATÉ 19200 X 19200 DPI.RESOLUÇÃO MÁX. DE DIGITALIZAÇÃO INTERPOLADA (DPI): ATÉ 19200 X 19200 DPI.RESOLUÇÃO DE DIGITALIZAÇÃO ÓPTICA (DPI): ATÉ 1200 X 2400 DPI (DO VIDRO DE DOCUMENTOS) FORMATOS (EXPORTAÇÃO): WINDOWS BITMAP (BMP), JPEG (JPG), TIFF SINGLE-PAGE/MULTI-PAGE (TIF), PORTABLE NETWORK GRAPHICS (PNG), PDF SINGLE-PAGE/MULTI-PAGE (PDF/A, HIGH COMPRESSION PDF, SECURE PDF, SEARCHABLE PDF), XML PAPER SPECIFICATION (XPS), MICROSOFT OFFICE WORD (DOCX), MICROSOFT OFFICE POWERPOINT (PPTX), MICROSOFT OFFICE EXCEL (XLSX), HTML 3.2/4.0 (HTM), MICROSOFT EXCEL 2003 XP (XLS), RTF WORD 2000/WORDPAD (RTF), WORDPERFECT 9/10 (WPD), TEXT (TXT).FUNÇÃO DIGITALIZAÇÃO PARA: ARQUIVO, IMAGEM, E-MAIL, OCR, FTP, SERVIDOR SSH (SFTP), USB, SHAREPOINT, NUVEM (WEB CONNECT), SERVIDOR DE E-MAIL1, PASTA DE REDE (SOMENTE CIFS WINDOWS), EASY SCAN TO E-MAIL.PAPEL:CAPACIDADE DE ENTRADA: ATÉ 100 FOLHAS. CAPACIDADE DE ENTRADA PADRÃO (CARTÕES): ATÉ 30 CARTÕES CAPACIDADE DE ENTRADA PADRÃO(ENVELOPES): ATÉ 10 CAPACIDADE DE SAÍDA: ATÉ 30 FOLHAS. TAMANHOS DE MÍDIA SUPORTADOS (SISTEMA MÉTRICO): A4; B5; A6; ENVELOPE DL, OFÍCIO TAMANHOS DE MÍDIA COMPATÍVEIS (PADRÃO DOS EUA): CARTA; OFÍCIO; 4 X 6 POL.; 5 X 7 POL.; 8 X 10 POL.; ENVELOPES NÚM. 10. TAMANHOS DE MÍDIA, PERSONALIZADOS (SISTEMA MÉTRICO): 76,2 X 127 A 215,9 X 355,6 MM TAMANHOS DE MÍDIA, PERSONALIZADOS (PADRÃO DOS EUA): 3 X 5 A 8,5 X 14 POL.TIPOS DE SUPORTES: PAPEL COMUM, PAPÉIS FOSCOS PARA FOLHETOS, PAPÉIS BRILHANTES PARA FOLHETOS, PAPÉIS FOTOGRÁFICOS, ENVELOPES, OUTROS PAPÉIS ESPECIAIS P/ JATO DE TINTA GRAMATURA DE MÍDIA COMPATÍVEL (SISTEMA MÉTRICO): PAPEL COMUM: 60 A 90 G/M²; ENVELOPES: 75 A 90 G/M²; CARTÕES: ATÉ A 200 G/M ²; PAPEL FOTOGRÁFICO: ATÉ 300 G/M ². GRAMATURA DE MÍDIA COMPATÍVEL (PADRÃO DOS EUA): 20 LB. IMPRESSÃO SEM MARGENS: SIM (ATÉ 8,5 X 11 POLEGADAS, 210 X 297 MM) CONECTIVIDADE:PORTAS: USB 2.0, ETHERNET GIGABIT, WI-FI, BLUETOOTH LE,CAPACIDADE SEM FIOS: SIM, WI-FI 802.11 B/G/N COM BANDA DUPLA INTEGRADO, WIRELESS DIRECT, GERAL:VOLTAGEM DE ENTRADA: 100-127 VAC, 50/60 HZ, AUTOMÁTICA; COMPATIBILIDADE COM LINUX E WINDOWS;SUPORTE PROTOCOLO DHCP;CONECTIVIDADE: USB 2.0, WIRELESS 802.11 (INTERNO OU EXTERNO DO MESMO FABRICANTE DO EQUIPAMENTO) OU SUPERIOR.MEMORIA INTERNA MINIMA DE 128 MB; GARANTIA DE SUPORTE E MANUTENÇÃO:NA COMPRA, GARANTIA TOTAL MÍNIMA DE 12 (DOZE) MESES, COM ATENDIMENTO NO LOCAL DA INSTALAÇÃO DO EQUIPAMENTO, NA CIDADE DE SALVADOR (BA).TODOS OS EQUIPAMENTOS OFERTADOS DEVEM POSSUIR GRADAÇÕES NEUTRAS DAS CORES: PRETO, BRANCO OU CINZA.CATÁLOGOS, SOFTWARE DE INSTALAÇÃO, CABOS DE FORÇA, CABOS DE INTERFACE E DEMAISACESSÓRIOS.QUE ACOMPANHAM O EQUIPAMENTO, TODOS CONFORME NORMAS TÉCNICAS VIGENTES.COMPOSIÇÃO E ACESSÓRIOS:CATÁLOGOS, SOFTWARE DE INSTALAÇÃO, CABO DE ALIMENTAÇÃO (PADRÃO NBR-14136), CABO USB, FRASCO DE TINTA PARA, SENDO ACEITOS OS SUPRIMENTOS QUE ACOMPANHAM A IMPRESSORA DE FÁBRICA, E DEMAIS ACESSÓRIOS QUE ACOMPANHAM O EQUIPAMENTO;TODOS OS EQUIPAMENTOS A SEREM ENTREGUES DEVERÃO SER IDÊNTICOS, OU SEJA, TODOS OS COMPONENTES EXTERNOS E INTERNOS DE MESMOS MODELOS E MARCAS DOS UTILIZADOS NOS EQUIPAMENTOS ENVIADOS PARA AVALIAÇÃO E/OU HOMOLOGAÇÃO PELA CONTRATANTE. CASO O COMPONENTE NÃO MAIS SE ENCONTRE DISPONÍVEL NO MERCADO, ADMITEM-SE SUBSTITUTOS COM QUALIDADE E CARACTERÍSTICAS IDÊNTICAS OU SUPERIORES, MEDIANTE NOVA HOMOLOGAÇÃO PELA CONTRATANTE;AS UNIDADES DO EQUIPAMENTO DEVERÃO SER ENTREGUES DEVIDAMENTE ACONDICIONADAS EM EMBALAGENS INDIVIDUAIS ADEQUADAS, QUE UTILIZEM PREFERENCIALMENTE MATERIAIS RECICLÁVEIS, DE FORMA A GARANTIR A MÁXIMA PROTEÇÃO DURANTE O TRANSPORTE E A ARMAZENAGEM.DOCUMENTOS:DE GARANTIA TOTAL DE TODOS OS COMPONENTES DO EQUIPAMENTO; OS OBJETOS DEVEM CONTER MANUAL OFICIAL DO FABRICANTE ONDE PODERÃO SER CONFERIDAS TODAS AS CARACTERÍSTICAS TÉCNICAS EXIGIDAS DE TODOS OS COMPONENTES DO EQUIPAMENTO, QUE DE FORMA INEQUÍVOCA IDENTIFIQUEM E COMPROVEM AS CONFIGURAÇÕES, POSSÍVEIS EXPANSÕES E UPGRADES, ATRAVÉS DE CERTIFICADOS, EVENTUAIS MANUAIS TÉCNICOS, FOLDERS E DEMAIS LITERATURAS TÉCNICAS EDITADAS PELOS FABRICANTES.</t>
+  </si>
+  <si>
+    <t>MICROFONE SEM FIO; FAIXA DE FREQUÊNCIA DE PORTADORA: UHF730-830MHZ, ESTABILIDADE DE FREQUÊNCIA: &lt;± 30PPM, FAIXA DE ESTABILIDADE MÓVEL: &gt;90 DB, MODO DE MODULAÇÃO: FM, RESPOSTA EM FREQUÊNCIA: 40 HZ ~ 20KHZ, RELAÇÃO SINAL/RUÍDO: &amp;#8805;5DBU (SINAD = 20DB, RELAÇÃO F/N: &gt;80 DB, RELAÇÃO P/N: &gt;80 DB, SAÍDA DE ÁUDIO: 0 ~ 700 MW, ALCANCE: 50 M, TEMPERATURA DE OPERAÇÃO: -10 °C ~ +50 °C, 2 MICROFONES, BASE RECEPTORA DUPLA, 1 FONTE DE ALIMENTAÇÃO 110/220V1 CABO P10/P10 // , 2 BATERIAS 9V, COR PRETA.</t>
   </si>
   <si>
     <t>PORTEIRO ELETRÔNICO. (VÍDEO PORTEIRO) COMPONENTES: DISPLAY, ATÉ 4 CANAIS, MICROFONE, TIPO SISTEMA: ELETRÔNICO, APLICAÇÃO: SISTEMA DE SEGURANÇA, FONTE ALIMENTAÇÃO: VOLTAGEM 127/220 (BIVOLT), COM MONTAGEM NA PAREDE, GARANTIA MÍNIMA 12 MESES.</t>
@@ -118,61 +118,10 @@
     <t>SCANNER DE MESA, BIVOLT, ÁREA PARA DIGITALIZAÇÃO COM CAPACIDADE PARA UMA FOLHA A4, COM CAPACIDADE DE DIGITALIZAÇÃO DE FOLHAS AVULSAS, DOCUMENTOS E FOTOGRAFIAS, PODENDO REALIZAR AS DIGITALIZAÇÕES NA COR COLORIDA OU PRETO E BRANCO, COM CONECTIVIDADE POR USB, COM CABO DE FORÇA, MANUAL DE INSTRUÇÃO E TODOS OS ACESSÓRIOS QUE SE FAÇAM NECESSÁRIOS PARA O BOM FUNCIONAMENTO DO EQUIPAMENTO E GARANTIA DE 12 MESES.</t>
   </si>
   <si>
-    <t>SERVIDOR, CARACTERÍSTICAS GERAIS: PROCESSADOR: MÍNIMO 4 NÚCLEOS COM 4 THREADS DE 2.9 GHZ COM 8MB DE MEMÓRIA CACHE. PLACA MÃE:POSSUI NO MÍNIMO 2 (DOIS) SLOTS DE MEMÓRIA;SUPORTE A MEMÓRIAS DDR4 SDRAM 2.66 MHZ OU SUPERIOR;OS SLOTS UDIMM DEVERÃO SUPORTAR, NO MÍNIMO, MÓDULOS DE 04 (QUATRO) GB A 32 (TRINTA E DOIS) GB DE MEMÓRIA DDR4;POSSUIR CHIPSET QUE TENHA SUPORTE A TECNOLOGIAS COMPATÍVEIS AO PROCESSADOR; POSSUIR, NO MÍNIMO, 01 (UM) SLOTS PCIE X16;POSSUIR, NO MÍNIMO, 02 PORTAS DIGITAIS;DEVE PERMITIR SALVAR AS CONFIGURAÇÕES DO BIOS EM UM ARQUIVO E CARREGÁ-LAS EM OUTROS EQUIPAMENTOS DO MESMO MODELO, ESTANDO ESTE COM SENHA CONFIGURADA NO BIOS OU NÃO, FACILITANDO ASSIM A APLICAÇÃO AUTOMATIZADA DE CONFIGURAÇÕES E POLÍTICAS DE SEGURANÇA; POSSUIR CHIP TPM 2.0, SENDO ACEITO A SOLUÇÃO FTPM 2.0.DEVERÁ SER PROJETADA E DESENVOLVIDA PELO MESMO FABRICANTE DO EQUIPAMENTO OFERTADO, COM SEU NOME SERIGRAFADO, NÃO SENDO ACEITO O EMPREGO DE PLACAS-MÃE DE LIVRE COMERCIALIZAÇÃO.NO MERCADO;MEMÓRIA:MÍNIMO DE 8 (OITO) GB DE RAM DDR4 DE 2.666 MHZ ECC, UDIMM, BCC, EM DUAL CHANNEL OU SINGLE CHANNEL, INSTALADOS;CONTROLADORA DE VÍDEO:CONTROLADORA ONBOARD COM CAPACIDADE PARA CONTROLAR 01 MONITOR DE VÍDEO COMPATÍVEL COM PADRÃO VGA, HDMI OU DISPLAYPORT; MEMÓRIA DE VÍDEO COM ALOCAÇÃO DINÂMICA DA MEMÓRIA RAM DO SISTEMA;UNIDADE DE DISCO: ARMAZENAMENTO MÍNIMO DE 2TB HDD SATA 6GBPS 7.2K RPM; UNIDADE GRAVADOR DE DVD/RW DUAL LAYER; CONTROLADORA RAID: NECESSÁRIO CONTROLADORA COM SUPORTE A RAID 0, 1 E 5;INTERFACES DE REDE:MÍNIMO 1 PORTA ETHERNET 1GBE AUTOSENSE IEEE 802.3;MÍNIMO DE 1 CONECTOR RJ-45 COM LEDS DE STATUS DE CONEXÃO;PORTAS E INTERFACES:CONTROLADORA DE DISCO PADRÃO MÍNIMO SERIAL ATA 3 DE 6 GB/S;NO MÍNIMO 6 (SEIS) INTERFACES USB (UNIVERSAL SERIAL BUS) INTERFACE PARA FONE DE OUVIDO E MICROFONE FRONTAIS;GABINETE:O GABINETE POSSUI LOCAL APROPRIADO, JÁ DESENVOLVIDO NO PROJETO DO PRODUTO, PARA COLOCAÇÃO DE LACRES OU CADEADOS MECÂNICOS OU ELETRÔNICOS NÃO SENDO ACEITO ADAPTAÇÕES;O GABINETE POSSUI SENSOR DE ABERTURA DA TAMPA PARA REGISTRAR O EVENTO NO BIOS;FONTE DE ALIMENTAÇÃO: DEVERÁ SER FORNECIDA 01 (UMA) FONTE DE ALIMENTAÇÃO NECESSÁRIA PARA O FUNCIONAMENTO DO COMPUTADOR:A POTÊNCIA DA FONTE DE ALIMENTAÇÃO DEVERÁ SUPORTAR TODA A CONFIGURAÇÃO DO COMPUTADOR; A FONTE DE ALIMENTAÇÃO OFERTADA CONTÉM O RECURSO DE FATOR DE CORREÇÃO DE ENERGIA ATIVA - “PFC” (POWER FACTOR CORRECTION);FAIXA DE TENSÃO DE ENTRADA DE 100VAC A 240VAC, COM SELEÇÃO AUTOMÁTICA DE TENSÃO, CAPAZ DE SUSTENTAR A CONFIGURAÇÃO MÁXIMA DO COMPUTADOR;A FONTE DE ALIMENTAÇÃO POSSUI CERTIFICAÇÃO 80PLUS COM EFICIÊNCIA SUPERIOR A 80%;TECLADO:MÍNIMO DE 102 TECLAS;PADRÃO ABNT TIPO II (NBR 10346/10347); CONECTOR USB;MOUSE ÓPTICO:PADRÃO MICROSOFT COM RESOLUÇÃO MÍNIMA DE 800 DPI; CONECTOR USB;COM CONTROLE DE MOVIMENTAÇÃO DE BARRA DE ROLAGEM DE APLICATIVOS; MONITOR:DEVERÁ SER DA COR PREDOMINANTEMENTE PRETA;POSSUIR TELA EM LCD ILUMINADO POR LED, COM ANTIRREFLEXO;POSSUIR TELA COM ÁREA ÚTIL VISÍVEL DE TAMANHO DIAGONAL NÃO INFERIOR A 21,5” POLEGADAS; POSSUIR ÂNGULO DE VISÃO COM LIMITE MÍNIMO DE 170 GRAUS PARA HORIZONTAL E 160 GRAUS PARA VERTICAL.POSSUIR RESOLUÇÃO MÁXIMA SUPORTADA DE NO MÍNIMO 1920X1080 PIXELS; BRILHO NÃO INFERIOR A 200 CD/M2;POSSIBILIDADE DE GERAR 16 MILHÕES DE CORES OU MAIS; POSSUIR TEMPO DE RESPOSTA DE NO MÁXIMO 5 MILISSEGUNDOS;POSSUIR CONTROLES DE AJUSTE DA IMAGEM COM MENU ON SCREEN; DEVE SER PLUG AND PLAY;DEVE POSSUIR CERTIFICAÇÃO DE ECONOMIA DE ENERGIA;SOFTWARE E DOCUMENTAÇÃO:WINDOWS SERVER 2022 STANDARD, INSTALAÇÃO DE FÁBRICA, SEM CALS, VÁRIAS LÍNGUAS;SERÃO FORNECIDOS TODOS OS DRIVERS DO EQUIPAMENTO;OS MANUAIS DO EQUIPAMENTO DEVERÃO SER FORNECIDOS EM MÍDIA ELETRÔNICA;CARACTERÍSTICAS GERAIS:NA COMPRA, GARANTIA TOTAL MÍNIMA DE 12 (DOZE) MESES, COM ATENDIMENTO NO LOCAL DA INSTALAÇÃO DO EQUIPAMENTO, NA CIDADE DE SALVADOR (BA).TODOS OS EQUIPAMENTOS OFERTADOS DEVEM POSSUIR GRADAÇÕES NEUTRAS DAS CORES: PRETO, BRANCO OU CINZA.OS OBJETOS DEVEM CONTER MANUAL OFICIAL DO FABRICANTE ONDE PODERÃO SER CONFERIDAS TODAS AS CARACTERÍSTICAS TÉCNICAS EXIGIDAS DE TODOS OS COMPONENTES DO EQUIPAMENTO, QUE DE FORMA INEQUÍVOCA IDENTIFIQUEM E COMPROVEM AS CONFIGURAÇÕES, POSSÍVEIS EXPANSÕES E UPGRADES, ATRAVÉS DE CERTIFICADOS, EVENTUAIS MANUAIS TÉCNICOS, FOLDERS E DEMAIS LITERATURAS TÉCNICAS EDITADAS PELOS FABRICANTES.</t>
+    <t>SERVIDOR, CARACTERÍSTICAS GERAIS: PROCESSADOR: MÍNIMO 4 NÚCLEOS COM 4 THREADS DE 2.9 GHZ COM 8MB DE MEMÓRIA CACHE. PLACA MÃE:POSSUI NO MÍNIMO 2 (DOIS) SLOTS DE MEMÓRIA;SUPORTE A MEMÓRIAS DDR4 SDRAM 2.66 MHZ OU SUPERIOR;OS SLOTS UDIMM DEVERÃO SUPORTAR, NO MÍNIMO, MÓDULOS DE 04 (QUATRO) GB A 32 (TRINTA E DOIS) GB DE MEMÓRIA DDR4;POSSUIR CHIPSET QUE TENHA SUPORTE A TECNOLOGIAS COMPATÍVEIS AO PROCESSADOR; POSSUIR, NO MÍNIMO, 01 (UM) SLOTS PCIE X16;POSSUIR, NO MÍNIMO, 02 PORTAS DIGITAIS;DEVE PERMITIR SALVAR AS CONFIGURAÇÕES DO BIOS EM UM ARQUIVO E CARREGÁ-LAS EM OUTROS EQUIPAMENTOS DO MESMO MODELO, ESTANDO ESTE COM SENHA CONFIGURADA NO BIOS OU NÃO, FACILITANDO ASSIM A APLACAÇÃO AUTOMATIZADA DE CONFIGURAÇÕES E POLÍTICAS DE SEGURANÇA; POSSUIR CHIP TPM 2.0, SENDO ACEITO A SOLUÇÃO FTPM 2.0.DEVERÁ SER PROJETADA E DESENVOLVIDA PELO MESMO FABRICANTE DO EQUIPAMENTO OFERTADO, COM SEU NOME SERIGRAFADO, NÃO SENDO ACEITO O EMPREGO DE PLACAS-MÃE DE LIVRE COMERCIALIZAÇÃO.NO MERCADO;MEMÓRIA:MÍNIMO DE 8 (OITO) GB DE RAM DDR4 DE 2.666 MHZ ECC, UDIMM, BCC, EM DUAL CHANNEL OU SINGLE CHANNEL, INSTALADOS;CONTROLADORA DE VÍDEO:CONTROLADORA ONBOARD COM CAPACIDADE PARA CONTROLAR 01 MONITOR DE VÍDEO COMPATÍVEL COM PADRÃO VGA, HDMI OU DISPLAYPORT;MEMÓRIA DE VÍDEO COM ALOCAÇÃO DINÂMICA DA MEMÓRIA RAM DO SISTEMA;UNIDADE DE DISCO:ARMAZENAMENTO MÍNIMO DE 2TB HDD SATA 6GBPS 7.2K RPM; UNIDADE GRAVADOR DE DVD/RW DUAL LAYER;CONTROLADORA RAID:NECESSÁRIO CONTROLADORA COM SUPORTE A RAID 0, 1 E 5;INTERFACES DE REDE:MÍNIMO 1 PORTA ETHERNET 1GBE AUTOSENSE IEEE 802.3;MÍNIMO DE 1 CONECTOR RJ-45 COM LEDS DE STATUS DE CONEXÃO;PORTAS E INTERFACES:CONTROLADORA DE DISCO PADRÃO MÍNIMO SERIAL ATA 3 DE 6 GB/S;NO MÍNIMO 6 (SEIS) INTERFACES USB (UNIVERSAL SERIAL BUS) INTERFACE PARA FONE DE OUVIDO E MICROFONE FRONTAIS;GABINETE:O GABINETE POSSUI LOCAL APROPRIADO, JÁ DESENVOLVIDO NO PROJETO DO PRODUTO, PARA COLOCAÇÃO DE LACRES OU CADEADOS MECÂNICOS OU ELETRÔNICOS NÃO SENDO ACEITO ADAPTAÇÕES;O GABINETE POSSUI SENSOR DE ABERTURA DA TAMPA PARA REGISTRAR O EVENTO NO BIOS;FONTE DE ALIMENTAÇÃO:DEVERÁ SER FORNECIDA 01 (UMA) FONTE DE ALIMENTAÇÃO NECESSÁRIA PARA O FUNCIONAMENTO DO COMPUTADOR:A POTÊNCIA DA FONTE DE ALIMENTAÇÃO DEVERÁ SUPORTAR TODA A CONFIGURAÇÃO DO COMPUTADOR; A FONTE DE ALIMENTAÇÃO OFERTADA CONTÉM O RECURSO DE FATOR DE CORREÇÃO DE ENERGIA ATIVA - “PFC” (POWER FACTOR CORRECTION);FAIXA DE TENSÃO DE ENTRADA DE 100VAC A 240VAC, COM SELEÇÃO AUTOMÁTICA DE TENSÃO, CAPAZ DE SUSTENTAR A CONFIGURAÇÃO MÁXIMA DO COMPUTADOR;A FONTE DE ALIMENTAÇÃO POSSUI CERTIFICAÇÃO 80PLUS COM EFICIÊNCIA SUPERIOR A 80%;TECLADO:MÍNIMO DE 102 TECLAS;PADRÃO ABNT TIPO II (NBR 10346/10347);CONECTOR USB;MOUSE ÓPTICO:PADRÃO MICROSOFT COM RESOLUÇÃO MÍNIMA DE 800 DPI; CONECTOR USB;COM CONTROLE DE MOVIMENTAÇÃO DE BARRA DE ROLAGEM DE APLICATIVOS;MONITOR:DEVERÁ SER DA COR PREDOMINANTEMENTE PRETA;POSSUIR TELA EM LCD ILUMINADO POR LED, COM ANTIRREFLEXO;POSSUIR TELA COM ÁREA ÚTIL VISÍVEL DE TAMANHO DIAGONAL NÃO INFERIOR A 21,5” POLEGADAS; POSSUIR ANGULO DE VISÃO COM LIMITE MÍNIMO DE 170 GRAUS PARA HORIZONTAL E 160 GRAUS PARA VERTICAL.POSSUIR RESOLUÇÃO MÁXIMA SUPORTADA DE NO MÍNIMO 1920X1080 PIXELS; BRILHO NÃO INFERIOR A 200 CD/M2;POSSIBILIDADE DE GERAR 16 MILHÕES DE CORES OU MAIS; POSSUIR TEMPO DE RESPOSTA DE NO MÁXIMO 5 MILISSEGUNDOS;POSSUIR CONTROLES DE AJUSTE DA IMAGEM COM MENU ON SCREEN; DEVE SER PLUG AND PLAY;DEVE POSSUIR CERTIFICAÇÃO DE ECONOMIA DE ENERGIA;SOFTWARE E DOCUMENTAÇÃO:WINDOWS SERVER® 2022 STANDARD, INSTALAÇÃO DE FÁBRICA, SEM CALS, VÁRIAS LÍNGUAS;SERÃO FORNECIDOS TODOS OS DRIVERS DO EQUIPAMENTO;OS MANUAIS DO EQUIPAMENTO DEVERÃO SER FORNECIDOS EM MÍDIA ELETRÔNICA;CARACTERÍSTICAS GERAIS:NA COMPRA, GARANTIA TOTAL MÍNIMA DE 12 (DOZE) MESES, COM ATENDIMENTO NO LOCAL DA INSTALAÇÃO DO EQUIPAMENTO, NA CIDADE DE SALVADOR (BA).TODOS OS EQUIPAMENTOS OFERTADOS DEVEM POSSUIR GRADAÇÕES NEUTRAS DAS CORES: PRETO, BRANCO OU CINZA.OS OBJETOS DEVEM CONTER MANUAL OFICIAL DO FABRICANTE ONDE PODERÃO SER CONFERIDAS TODAS AS CARACTERÍSTICAS TÉCNICAS EXIGIDAS DE TODOS OS COMPONENTES DO EQUIPAMENTO, QUE DE FORMA INEQUÍVOCA IDENTIFIQUEM E COMPROVEM AS CONFIGURAÇÕES, POSSÍVEIS EXPANSÕES E UPGRADES, ATRAVÉS DE CERTIFICADOS, EVENTUAIS MANUAIS TÉCNICOS, FOLDERS E DEMAIS LITERATURAS TÉCNICAS EDITADAS PELOS FABRICANTES.</t>
   </si>
   <si>
     <t>VIDEOGAME ANO DE LANÇAMENTO NO MÍNIMO 2020, SSD: 500GB; 1 (UM) CONTROLE WIRELESS (SEM FIO); IMAGEM: 4K; CONEXÕES: USB, HDMI; CONECTIVIDADE: WIFI, BLUETOOTH E ETHERNET; CABOS: HDMI, CABO DE ENERGIA E USB; ALIMENTAÇÃO: ENERGIA ELÉTRICA, BIVOLT; COM NO MÍNIMO 02 JOGOS E COM GARANTIA DE 12 MESES, MANUAL DE INSTRUÇÃO E TODOS OS ACESSÓRIOS QUE SE FAÇAM NECESSÁRIOS PARA O BOM FUNCIONAMENTO DO EQUIPAMENTO.</t>
-  </si>
-  <si>
-    <t>3016,00</t>
-  </si>
-  <si>
-    <t>4589,10</t>
-  </si>
-  <si>
-    <t>3419,10</t>
-  </si>
-  <si>
-    <t>4469,35</t>
-  </si>
-  <si>
-    <t>359,00</t>
-  </si>
-  <si>
-    <t>605,90</t>
-  </si>
-  <si>
-    <t>1906,75</t>
-  </si>
-  <si>
-    <t>5299,00</t>
-  </si>
-  <si>
-    <t>3679,28</t>
-  </si>
-  <si>
-    <t>75399,90</t>
-  </si>
-  <si>
-    <t>45891,00</t>
-  </si>
-  <si>
-    <t>37610,10</t>
-  </si>
-  <si>
-    <t>26816,08</t>
-  </si>
-  <si>
-    <t>2872,00</t>
-  </si>
-  <si>
-    <t>3813,50</t>
-  </si>
-  <si>
-    <t>10598,00</t>
-  </si>
-  <si>
-    <t>22075,70</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -587,20 +536,20 @@
       <c r="D2">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
+      <c r="E2">
+        <v>3015.996</v>
+      </c>
+      <c r="F2">
+        <v>75399.89999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -616,20 +565,17 @@
       <c r="D3">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
+      <c r="F3">
+        <v>45891</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -645,20 +591,20 @@
       <c r="D4">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
+      <c r="E4">
+        <v>3419.1</v>
+      </c>
+      <c r="F4">
+        <v>37610.1</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -674,20 +620,17 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
+      <c r="F5">
+        <v>26816.08</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -703,20 +646,17 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
+      <c r="F6">
+        <v>2872</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -732,20 +672,20 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
+      <c r="E7">
+        <v>605.9</v>
+      </c>
+      <c r="F7">
+        <v>605.9</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -761,20 +701,17 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
+      <c r="F8">
+        <v>3813.5</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -790,20 +727,17 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
+      <c r="F9">
+        <v>10598</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -819,20 +753,17 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
+      <c r="F10">
+        <v>22075.7</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_929615_E_900032025_01-10-2025_10h00m/U_929615_E_900032025_01-10-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_929615_E_900032025_01-10-2025_10h00m/U_929615_E_900032025_01-10-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Nº</t>
   </si>
@@ -43,33 +43,6 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Gabinete Para Computador Gabinete Para Computador Tipo: 4 Baias, Material: Aço, Características Adicionais: Storage Nas, Sem Disco, Usb 3.0 Raid</t>
   </si>
   <si>
@@ -97,31 +70,7 @@
     <t>Aparelho dvd Aparelho dvd Resolução: 720 Linhas, Tensão: 110/220 V, Funções: Mp3 Divx Wma Cd De Vídeo Jpeg Cd Cd-R Cd Rw, Características Adicionais: Com Controle Remoto</t>
   </si>
   <si>
-    <t>COMPUTADOR (DESKTOP-BÁSICO) PROCESSADOR: NO MÍNIMO INTEL CORE I3 OU AMD A10, OU SUPERIORES, DISCO RÍGIDO: MÍNIMO DE 500 GB, MEMÓRIA RAM: 4GB, DDR3, MÍNIMA 2,41MHZ, UNIDADE DE DISCO ÓTICO: CD/DVD ROM,CAIXA DE SOM STÉREO TECLADO: USB, ABNT2, 107 TECLAS (COM FIO), TIPO DE MONITOR: 18,5 (1366 X 768), MOUSE: USB, 800 DPI, 2 BOTÕES, SCROOL (COM FIO), INTERFACES DE REDE: 10/100/1000 E WIFI, INTERFACES DE VÍDEO: INTEGRADA, SISTEMA OPERACIONAL: WINDOWS 11 PRO (64 BITS), FONTE: COMPATÍVEL COM O ITEM, 1TB GARANTIA: MÍNIMA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>DATA SHOW (PROJETOR) PROJETOR MULTIMÍDIA NÃO INFERIOR A 3600 ANSI LUMENS - COM RESOLUÇÃO NATIVA (SEM EMULAÇÃO) DE (XGA) 1024 X 768, PERMITINDO OUTRAS RESOLUÇÕES EMULADAS, CONTRASTE DE 16.000:1, PROJEÇÃO MÍNIMA DE 1,48 ~ 1,77 M, VIDA ÚTIL DE LÂMPADA NO MÍNIMO DE 6.000 HORAS (PADRÃO) E 12.000 HORAS (ECO), COM MODO DE PROJEÇÃO FRONTAL / TRASEIRO / TETO, COM ZOOM E FOCO AJUSTÁVEIS, COM BOTÕES FÍSICOS E CONTROLE REMOTO, ENTRADAS: VGA, USB, HDMI, ÁUDIO, RCA, RS232, USB MINI, GARANTIA MÍNIMA DE 12 MESES PELO FABRICANTE. ITENS INCLUSOS: - PROJETOR DEVIDAMENTE ACONDICIONADO; - CABO DE ENERGIA; - CABO HDMI; - CABO VGA; - CONTROLE REMOTO; - PILHAS; - CD COM SOFTWARE; - CARTÃO COM GARANTIA; - MANUAL EM PORTUGUÊS; ALIMENTAÇÃO – ENERGIA ELETRICA, BIVOLT.</t>
-  </si>
-  <si>
-    <t>IMPRESSORA LASER COLORIDA (IMPRESSORA, COPIADORA E SCANNER) 110 VOLTS, ENTRADA USB, MEMÓRIA INTERNA MÍNIMA DE 128 MB, TIPO DE PAPEL: A4, TIMBRADO, SULFITE, ETIQUETAS. COM CAPACIDADE PARA IMPRESSÃO DUPLEX (FRENTE E VERSO), REALIZE IMPRESSORES COLORIDAS COM CABO DE FORÇA E COM TODOS OS EQUIPAMENTOS QUE SE FAÇAM NECESSÁRIOS PARA O PLENO FUNCIONAMENTO DO EQUIPAMENTO, COM MANUAL DE INSTRUÇÃO, GARANTIA MÍNIMA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>IMPRESSORA MULTIFUNCIONAL LASER COLORIDA, CARACTERÍSTICAS GERAIS: IMPRESSÃO: PADRÃO DE IMPRESSÃO DUPLEX (FRENTE E VERSO) IMPRESSÃO COLORIDA TECNOLOGIA DE IMPRESSÃO: LASER COLORIDO VELOCIDADE MÁX. DE IMPRESSÃO: ATÉ 33 PPM EM PRETO/CORES RESOLUÇÃO DA IMPRESSÃO (MÁXIMA EM DPI): ATÉ 2400 X 600 DPI RESOLUÇÃO (MÁXIMA) EM DPI: ATÉ 2400 X 600 DPI.CAPACIDADE DE ENTRADA DE PAPEL PADRÃO (FOLHAS): BANDEJA PARA ATÉ 250 FOLHAS CAPACIDADE DA BANDEJA DE PAPEL: BANDEJA PARA ATÉ 250 FOLHAS.CAPACIDADE DE BANDEJA ADICIONAL:BANDEJA MULTIUSO: BANDEJA MULTIUSO PARA 50 FOLHAS OU MAIS;COMPATIBILIDADE COM O DRIVER DE IMPRESSORA: WINDOWS, MAC OS, LINUX CICLO DE TRABALHO MENSAL MÁX.: 40,000 PÁGINAS.CÓPIA:CÓPIAS MÚLTIPLAS RESOLUÇÃO DE CÓPIA (MÁXIMA): 1200 X 600 DPI OPÇÕES DE CÓPIA: ORDENADAS, N EM 1, CÓPIAS MÚLTIPLAS CÓPIA EM CORES/PB: PRETO/CORES COPIA SEM USO DO PC, CAPACIDADE DE CÓPIA: PRETO/CORES, CAPACIDADE MÁX. DO ALIMENTADOR AUTOMÁTICO DE DOCUMENTOS (ADF): ATÉ 50 PÁGINAS VELOCIDADE MÁX. DE CÓPIA EM PRETO (CPM): ATÉ 33 COM, FUNÇÃO DE CÓPIAS ORDENADAS, TAMANHO DO VIDRO DE DOCUMENTOS: 21,6 X 27,9 CM (CARTA) TAMANHO DO VIDRO DE EXPOSIÇÃO: 21,6 X 27,9 CM (CARTA) CÓPIA DUPLEX (FRENTE E VERSO). SCANNER:RESOLUÇÃO DE DIGITALIZAÇÃO INTERPOLADA (DPI): ATÉ 19200 X 19200 DPI RESOLUÇÃO INTERPOLADA: ATÉ 19200 X 19200 DPI.RESOLUÇÃO MÁX. DE DIGITALIZAÇÃO INTERPOLADA (DPI): ATÉ 19200 X 19200 DPI.RESOLUÇÃO DE DIGITALIZAÇÃO ÓPTICA (DPI): ATÉ 1200 X 2400 DPI (DO VIDRO DE DOCUMENTOS) FORMATOS (EXPORTAÇÃO): WINDOWS BITMAP (BMP), JPEG (JPG), TIFF SINGLE-PAGE/MULTI-PAGE (TIF), PORTABLE NETWORK GRAPHICS (PNG), PDF SINGLE-PAGE/MULTI-PAGE (PDF/A, HIGH COMPRESSION PDF, SECURE PDF, SEARCHABLE PDF), XML PAPER SPECIFICATION (XPS), MICROSOFT OFFICE WORD (DOCX), MICROSOFT OFFICE POWERPOINT (PPTX), MICROSOFT OFFICE EXCEL (XLSX), HTML 3.2/4.0 (HTM), MICROSOFT EXCEL 2003 XP (XLS), RTF WORD 2000/WORDPAD (RTF), WORDPERFECT 9/10 (WPD), TEXT (TXT).FUNÇÃO DIGITALIZAÇÃO PARA: ARQUIVO, IMAGEM, E-MAIL, OCR, FTP, SERVIDOR SSH (SFTP), USB, SHAREPOINT, NUVEM (WEB CONNECT), SERVIDOR DE E-MAIL1, PASTA DE REDE (SOMENTE CIFS WINDOWS), EASY SCAN TO E-MAIL.PAPEL:CAPACIDADE DE ENTRADA: ATÉ 100 FOLHAS. CAPACIDADE DE ENTRADA PADRÃO (CARTÕES): ATÉ 30 CARTÕES CAPACIDADE DE ENTRADA PADRÃO(ENVELOPES): ATÉ 10 CAPACIDADE DE SAÍDA: ATÉ 30 FOLHAS. TAMANHOS DE MÍDIA SUPORTADOS (SISTEMA MÉTRICO): A4; B5; A6; ENVELOPE DL, OFÍCIO TAMANHOS DE MÍDIA COMPATÍVEIS (PADRÃO DOS EUA): CARTA; OFÍCIO; 4 X 6 POL.; 5 X 7 POL.; 8 X 10 POL.; ENVELOPES NÚM. 10. TAMANHOS DE MÍDIA, PERSONALIZADOS (SISTEMA MÉTRICO): 76,2 X 127 A 215,9 X 355,6 MM TAMANHOS DE MÍDIA, PERSONALIZADOS (PADRÃO DOS EUA): 3 X 5 A 8,5 X 14 POL.TIPOS DE SUPORTES: PAPEL COMUM, PAPÉIS FOSCOS PARA FOLHETOS, PAPÉIS BRILHANTES PARA FOLHETOS, PAPÉIS FOTOGRÁFICOS, ENVELOPES, OUTROS PAPÉIS ESPECIAIS P/ JATO DE TINTA GRAMATURA DE MÍDIA COMPATÍVEL (SISTEMA MÉTRICO): PAPEL COMUM: 60 A 90 G/M²; ENVELOPES: 75 A 90 G/M²; CARTÕES: ATÉ A 200 G/M ²; PAPEL FOTOGRÁFICO: ATÉ 300 G/M ². GRAMATURA DE MÍDIA COMPATÍVEL (PADRÃO DOS EUA): 20 LB. IMPRESSÃO SEM MARGENS: SIM (ATÉ 8,5 X 11 POLEGADAS, 210 X 297 MM) CONECTIVIDADE:PORTAS: USB 2.0, ETHERNET GIGABIT, WI-FI, BLUETOOTH LE,CAPACIDADE SEM FIOS: SIM, WI-FI 802.11 B/G/N COM BANDA DUPLA INTEGRADO, WIRELESS DIRECT, GERAL:VOLTAGEM DE ENTRADA: 100-127 VAC, 50/60 HZ, AUTOMÁTICA; COMPATIBILIDADE COM LINUX E WINDOWS;SUPORTE PROTOCOLO DHCP;CONECTIVIDADE: USB 2.0, WIRELESS 802.11 (INTERNO OU EXTERNO DO MESMO FABRICANTE DO EQUIPAMENTO) OU SUPERIOR.MEMORIA INTERNA MINIMA DE 128 MB; GARANTIA DE SUPORTE E MANUTENÇÃO:NA COMPRA, GARANTIA TOTAL MÍNIMA DE 12 (DOZE) MESES, COM ATENDIMENTO NO LOCAL DA INSTALAÇÃO DO EQUIPAMENTO, NA CIDADE DE SALVADOR (BA).TODOS OS EQUIPAMENTOS OFERTADOS DEVEM POSSUIR GRADAÇÕES NEUTRAS DAS CORES: PRETO, BRANCO OU CINZA.CATÁLOGOS, SOFTWARE DE INSTALAÇÃO, CABOS DE FORÇA, CABOS DE INTERFACE E DEMAISACESSÓRIOS.QUE ACOMPANHAM O EQUIPAMENTO, TODOS CONFORME NORMAS TÉCNICAS VIGENTES.COMPOSIÇÃO E ACESSÓRIOS:CATÁLOGOS, SOFTWARE DE INSTALAÇÃO, CABO DE ALIMENTAÇÃO (PADRÃO NBR-14136), CABO USB, FRASCO DE TINTA PARA, SENDO ACEITOS OS SUPRIMENTOS QUE ACOMPANHAM A IMPRESSORA DE FÁBRICA, E DEMAIS ACESSÓRIOS QUE ACOMPANHAM O EQUIPAMENTO;TODOS OS EQUIPAMENTOS A SEREM ENTREGUES DEVERÃO SER IDÊNTICOS, OU SEJA, TODOS OS COMPONENTES EXTERNOS E INTERNOS DE MESMOS MODELOS E MARCAS DOS UTILIZADOS NOS EQUIPAMENTOS ENVIADOS PARA AVALIAÇÃO E/OU HOMOLOGAÇÃO PELA CONTRATANTE. CASO O COMPONENTE NÃO MAIS SE ENCONTRE DISPONÍVEL NO MERCADO, ADMITEM-SE SUBSTITUTOS COM QUALIDADE E CARACTERÍSTICAS IDÊNTICAS OU SUPERIORES, MEDIANTE NOVA HOMOLOGAÇÃO PELA CONTRATANTE;AS UNIDADES DO EQUIPAMENTO DEVERÃO SER ENTREGUES DEVIDAMENTE ACONDICIONADAS EM EMBALAGENS INDIVIDUAIS ADEQUADAS, QUE UTILIZEM PREFERENCIALMENTE MATERIAIS RECICLÁVEIS, DE FORMA A GARANTIR A MÁXIMA PROTEÇÃO DURANTE O TRANSPORTE E A ARMAZENAGEM.DOCUMENTOS:DE GARANTIA TOTAL DE TODOS OS COMPONENTES DO EQUIPAMENTO; OS OBJETOS DEVEM CONTER MANUAL OFICIAL DO FABRICANTE ONDE PODERÃO SER CONFERIDAS TODAS AS CARACTERÍSTICAS TÉCNICAS EXIGIDAS DE TODOS OS COMPONENTES DO EQUIPAMENTO, QUE DE FORMA INEQUÍVOCA IDENTIFIQUEM E COMPROVEM AS CONFIGURAÇÕES, POSSÍVEIS EXPANSÕES E UPGRADES, ATRAVÉS DE CERTIFICADOS, EVENTUAIS MANUAIS TÉCNICOS, FOLDERS E DEMAIS LITERATURAS TÉCNICAS EDITADAS PELOS FABRICANTES.</t>
-  </si>
-  <si>
-    <t>MICROFONE SEM FIO; FAIXA DE FREQUÊNCIA DE PORTADORA: UHF730-830MHZ, ESTABILIDADE DE FREQUÊNCIA: &lt;± 30PPM, FAIXA DE ESTABILIDADE MÓVEL: &gt;90 DB, MODO DE MODULAÇÃO: FM, RESPOSTA EM FREQUÊNCIA: 40 HZ ~ 20KHZ, RELAÇÃO SINAL/RUÍDO: &amp;#8805;5DBU (SINAD = 20DB, RELAÇÃO F/N: &gt;80 DB, RELAÇÃO P/N: &gt;80 DB, SAÍDA DE ÁUDIO: 0 ~ 700 MW, ALCANCE: 50 M, TEMPERATURA DE OPERAÇÃO: -10 °C ~ +50 °C, 2 MICROFONES, BASE RECEPTORA DUPLA, 1 FONTE DE ALIMENTAÇÃO 110/220V1 CABO P10/P10 // , 2 BATERIAS 9V, COR PRETA.</t>
-  </si>
-  <si>
-    <t>PORTEIRO ELETRÔNICO. (VÍDEO PORTEIRO) COMPONENTES: DISPLAY, ATÉ 4 CANAIS, MICROFONE, TIPO SISTEMA: ELETRÔNICO, APLICAÇÃO: SISTEMA DE SEGURANÇA, FONTE ALIMENTAÇÃO: VOLTAGEM 127/220 (BIVOLT), COM MONTAGEM NA PAREDE, GARANTIA MÍNIMA 12 MESES.</t>
-  </si>
-  <si>
-    <t>SCANNER DE MESA, BIVOLT, ÁREA PARA DIGITALIZAÇÃO COM CAPACIDADE PARA UMA FOLHA A4, COM CAPACIDADE DE DIGITALIZAÇÃO DE FOLHAS AVULSAS, DOCUMENTOS E FOTOGRAFIAS, PODENDO REALIZAR AS DIGITALIZAÇÕES NA COR COLORIDA OU PRETO E BRANCO, COM CONECTIVIDADE POR USB, COM CABO DE FORÇA, MANUAL DE INSTRUÇÃO E TODOS OS ACESSÓRIOS QUE SE FAÇAM NECESSÁRIOS PARA O BOM FUNCIONAMENTO DO EQUIPAMENTO E GARANTIA DE 12 MESES.</t>
-  </si>
-  <si>
-    <t>SERVIDOR, CARACTERÍSTICAS GERAIS: PROCESSADOR: MÍNIMO 4 NÚCLEOS COM 4 THREADS DE 2.9 GHZ COM 8MB DE MEMÓRIA CACHE. PLACA MÃE:POSSUI NO MÍNIMO 2 (DOIS) SLOTS DE MEMÓRIA;SUPORTE A MEMÓRIAS DDR4 SDRAM 2.66 MHZ OU SUPERIOR;OS SLOTS UDIMM DEVERÃO SUPORTAR, NO MÍNIMO, MÓDULOS DE 04 (QUATRO) GB A 32 (TRINTA E DOIS) GB DE MEMÓRIA DDR4;POSSUIR CHIPSET QUE TENHA SUPORTE A TECNOLOGIAS COMPATÍVEIS AO PROCESSADOR; POSSUIR, NO MÍNIMO, 01 (UM) SLOTS PCIE X16;POSSUIR, NO MÍNIMO, 02 PORTAS DIGITAIS;DEVE PERMITIR SALVAR AS CONFIGURAÇÕES DO BIOS EM UM ARQUIVO E CARREGÁ-LAS EM OUTROS EQUIPAMENTOS DO MESMO MODELO, ESTANDO ESTE COM SENHA CONFIGURADA NO BIOS OU NÃO, FACILITANDO ASSIM A APLACAÇÃO AUTOMATIZADA DE CONFIGURAÇÕES E POLÍTICAS DE SEGURANÇA; POSSUIR CHIP TPM 2.0, SENDO ACEITO A SOLUÇÃO FTPM 2.0.DEVERÁ SER PROJETADA E DESENVOLVIDA PELO MESMO FABRICANTE DO EQUIPAMENTO OFERTADO, COM SEU NOME SERIGRAFADO, NÃO SENDO ACEITO O EMPREGO DE PLACAS-MÃE DE LIVRE COMERCIALIZAÇÃO.NO MERCADO;MEMÓRIA:MÍNIMO DE 8 (OITO) GB DE RAM DDR4 DE 2.666 MHZ ECC, UDIMM, BCC, EM DUAL CHANNEL OU SINGLE CHANNEL, INSTALADOS;CONTROLADORA DE VÍDEO:CONTROLADORA ONBOARD COM CAPACIDADE PARA CONTROLAR 01 MONITOR DE VÍDEO COMPATÍVEL COM PADRÃO VGA, HDMI OU DISPLAYPORT;MEMÓRIA DE VÍDEO COM ALOCAÇÃO DINÂMICA DA MEMÓRIA RAM DO SISTEMA;UNIDADE DE DISCO:ARMAZENAMENTO MÍNIMO DE 2TB HDD SATA 6GBPS 7.2K RPM; UNIDADE GRAVADOR DE DVD/RW DUAL LAYER;CONTROLADORA RAID:NECESSÁRIO CONTROLADORA COM SUPORTE A RAID 0, 1 E 5;INTERFACES DE REDE:MÍNIMO 1 PORTA ETHERNET 1GBE AUTOSENSE IEEE 802.3;MÍNIMO DE 1 CONECTOR RJ-45 COM LEDS DE STATUS DE CONEXÃO;PORTAS E INTERFACES:CONTROLADORA DE DISCO PADRÃO MÍNIMO SERIAL ATA 3 DE 6 GB/S;NO MÍNIMO 6 (SEIS) INTERFACES USB (UNIVERSAL SERIAL BUS) INTERFACE PARA FONE DE OUVIDO E MICROFONE FRONTAIS;GABINETE:O GABINETE POSSUI LOCAL APROPRIADO, JÁ DESENVOLVIDO NO PROJETO DO PRODUTO, PARA COLOCAÇÃO DE LACRES OU CADEADOS MECÂNICOS OU ELETRÔNICOS NÃO SENDO ACEITO ADAPTAÇÕES;O GABINETE POSSUI SENSO R DE ABERTURA DA TAMPA PARA REGISTRAR O EVENTO NO BIOS;FONTE DE ALIMENTAÇÃO:DEVERÁ SER FORNECIDA 01 (UMA) FONTE DE ALIMENTAÇÃO NECESSÁRIA PARA O FUNCIONAMENTO DO COMPUTADOR:A POTÊNCIA DA FONTE DE ALIMENTAÇÃO DEVERÁ SUPORTAR TODA A CONFIGURAÇÃO DO COMPUTADOR; A FONTE DE ALIMENTAÇÃO OFERTADA CONTÉM O RECURSO DE FATOR DE CORREÇÃO DE ENERGIA ATIVA - “PFC” (POWER FACTOR CORRECTION);FAIXA DE TENSÃO DE ENTRADA DE 100VAC A 240VAC, COM SELEÇÃO AUTOMÁTICA DE TENSÃO, CAPAZ DE SUSTENTAR A CONFIGURAÇÃO MÁXIMA DO COMPUTADOR;A FONTE DE ALIMENTAÇÃO POSSUI CERTIFICAÇÃO 80PLUS COM EFICIÊNCIA SUPERIOR A 80%;TECLADO:MÍNIMO DE 102 TECLAS;PADRÃO ABNT TIPO II (NBR 10346/10347);CONECTOR USB;MOUSE ÓPTICO:PADRÃO MICROSOFT COM RESOLUÇÃO MÍNIMA DE 800 DPI; CONECTOR USB;COM CONTROLE DE MOVIMENTAÇÃO DE BARRA DE ROLAGEM DE APLICATIVOS;MONITOR:DEVERÁ SER DA COR PREDOMINANTEMENTE PRETA;POSSUIR TELA EM LCD ILUMINADO POR LED, COM ANTIRREFLEXO;POSSUIR TELA COM ÁREA ÚTIL VISÍVEL DE TAMANHO DIAGONAL NÃO INFERIOR A 21,5” POLEGADAS; POSSUIR ANGULO DE VISÃO COM LIMITE MÍNIMO DE 170 GRAUS PARA HORIZONTAL E 160 GRAUS PARA VERTICAL.POSSUIR RESOLUÇÃO MÁXIMA SUPORTADA DE NO MÍNIMO 1920X1080 PIXELS; BRILHO NÃO INFERIOR A 200 CD/M2;POSSIBILIDADE DE GERAR 16 MILHÕES DE CORES OU MAIS; POSSUIR TEMPO DE RESPOSTA DE NO MÁXIMO 5 MILISSEGUNDOS;POSSUIR CONTROLES DE AJUSTE DA IMAGEM COM MENU ON SCREEN; DEVE SER PLUG AND PLAY;DEVE POSSUIR CERTIFICAÇÃO DE ECONOMIA DE ENERGIA;SOFTWARE E DOCUMENTAÇÃO:WINDOWS SERVER® 2022 STANDARD, INSTALAÇÃO DE FÁBRICA, SEM CALS, VÁRIAS LÍNGUAS;SERÃO FORNECIDOS TODOS OS DRIVERS DO EQUIPAMENTO;OS MANUAIS DO EQUIPAMENTO DEVERÃO SER FORNECIDOS EM MÍDIA ELETRÔNICA;CARACTERÍSTICAS GERAIS:NA COMPRA, GARANTIA TOTAL MÍNIMA DE 12 (DOZE) MESES, COM ATENDIMENTO NO LOCAL DA INSTALAÇÃO DO EQUIPAMENTO, NA CIDADE DE SALVADOR (BA).TODOS OS EQUIPAMENTOS OFERTADOS DEVEM POSSUIR GRADAÇÕES NEUTRAS DAS CORES: PRETO, BRANCO OU CINZA.OS OBJETOS DEVEM CONTER MANUAL OFICIAL DO FABRICANTE ONDE PODERÃO SER CONFERIDAS TODAS AS CARACTERÍSTICAS TÉCNICAS EXIGIDAS DE TODOS OS COMPONENTES DO EQUIPAMENTO, QUE DE FORMA INEQUÍVOCA IDENTIFIQUEM E COMPROVEM AS CONFIGURAÇÕES, POSSÍVEIS EXPANSÕES E UPGRADES, ATRAVÉS DE CERTIFICADOS, EVENTUAIS MANUAIS TÉCNICOS, FOLDERS E DEMAIS LITERATURAS TÉCNICASEDITADAS PELOS FABRICANTES.</t>
-  </si>
-  <si>
-    <t>VIDEOGAME ANO DE LANÇAMENTO NO MÍNIMO 2020, SSD: 500GB; 1 (UM) CONTROLE WIRELESS (SEM FIO); IMAGEM: 4K; CONEXÕES: USB, HDMI; CONECTIVIDADE: WIFI, BLUETOOTH E ETHERNET; CABOS: HDMI, CABO DE ENERGIA E USB; ALIMENTAÇÃO: ENERGIA ELÉTRICA, BIVOLT; COM NO MÍNIMO 02 JOGOS E COM GARANTIA DE 12 MESES, MANUAL DE INSTRUÇÃO E TODOS OS ACESSÓRIOS QUE SE FAÇAM NECESSÁRIOS PARA O BOM FUNCIONAMENTO DO EQUIPAMENTO.</t>
+    <t>IA NÃO RESPONDEU</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -524,14 +473,14 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -540,27 +489,27 @@
         <v>3015.996</v>
       </c>
       <c r="F2">
-        <v>75399.90000000001</v>
+        <v>75399.89999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -569,24 +518,24 @@
         <v>45891</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -598,24 +547,24 @@
         <v>37610.1</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -624,24 +573,24 @@
         <v>26816.08</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -650,24 +599,24 @@
         <v>2872</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -679,24 +628,24 @@
         <v>605.9</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -705,24 +654,24 @@
         <v>3813.5</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -731,24 +680,24 @@
         <v>10598</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -757,13 +706,13 @@
         <v>22075.7</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
